--- a/ESPN sports website/IPL/Sunrisers Hyderabad/.xlsx
+++ b/ESPN sports website/IPL/Sunrisers Hyderabad/.xlsx
@@ -460,16 +460,16 @@
         <v/>
       </c>
       <c r="H2" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Kolkata Knight Riders</v>
       </c>
       <c r="I2" t="str">
-        <v>Brabourne</v>
+        <v>Pune</v>
       </c>
       <c r="J2" t="str">
-        <v>April 23, 2022</v>
+        <v>May 14, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Sunrisers won by 9 wickets (with 72 balls remaining)</v>
+        <v>KKR won by 54 runs</v>
       </c>
     </row>
   </sheetData>
